--- a/biology/Botanique/Miyaradunchi/Miyaradunchi.xlsx
+++ b/biology/Botanique/Miyaradunchi/Miyaradunchi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ancienne résidence de Miyaradunchi (宮良殿内?) se trouve sur l'île d'Ishikagi, préfecture d'Okinawa au Japon. Bâtie vers 1819 par le gouverneur local, elle est répertoriée bien culturel important du Japon comme représentative de l'architecture des îles Yaeyama[1],[2]. Les jardins sont classés « sites exceptionnels du Japon »[3],[4]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ancienne résidence de Miyaradunchi (宮良殿内?) se trouve sur l'île d'Ishikagi, préfecture d'Okinawa au Japon. Bâtie vers 1819 par le gouverneur local, elle est répertoriée bien culturel important du Japon comme représentative de l'architecture des îles Yaeyama,. Les jardins sont classés « sites exceptionnels du Japon »,
 </t>
         </is>
       </c>
